--- a/Sprints/ProductBacklogSprint4.xlsx
+++ b/Sprints/ProductBacklogSprint4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schaperg/Documents/PrivateDrive/Courses/__Spring22/CSCI234/Project/SandwichTruck/Spring2022/Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1E6AA-03F3-7541-B68B-014C1AAEED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08BD9FE-FBA3-B54F-851A-0569AA59B77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="480" windowWidth="27600" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <author>stakeholdermap.com</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{E22DA79C-767F-4947-BBDC-A5BB9D4AA81C}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{E22DA79C-767F-4947-BBDC-A5BB9D4AA81C}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{7E3D2DB3-79FD-45BD-8698-49290D6AE0F4}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{7E3D2DB3-79FD-45BD-8698-49290D6AE0F4}">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{44CA4D0F-8A95-41C7-B92F-161904754939}">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{44CA4D0F-8A95-41C7-B92F-161904754939}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{80F0943D-E7E5-4043-B5F1-F1AFF2165B24}">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{80F0943D-E7E5-4043-B5F1-F1AFF2165B24}">
       <text>
         <r>
           <rPr>
@@ -171,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{6EDD9527-C5D3-4F10-91C5-98EF82292762}">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{6EDD9527-C5D3-4F10-91C5-98EF82292762}">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Project Management Templates</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Change the size of a block from 1 mile to 1/10 of a mile. This should provide more accurate travel distances by the truck.</t>
+  </si>
+  <si>
+    <t>Check List</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +529,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -636,6 +657,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,749 +1003,846 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:H52"/>
+  <dimension ref="C1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="11" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="16" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11" style="16" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="16" customWidth="1"/>
+    <col min="10" max="11" width="26.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="3:11" s="11" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-    </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="5" spans="3:11" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="C5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="3:11" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="3:11" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15">
+      <c r="G8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="15">
+      <c r="H8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="15">
+      <c r="J8" s="15">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="3:11" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="15">
+      <c r="G9" s="15">
         <v>5</v>
       </c>
-      <c r="F9" s="15">
+      <c r="H9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="15">
+      <c r="J9" s="15">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="3:11" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="15">
+      <c r="G10" s="15">
         <v>5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="H10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="15">
+      <c r="J10" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="15">
+      <c r="G11" s="15">
         <v>4</v>
       </c>
-      <c r="F11" s="15">
+      <c r="H11" s="15">
         <v>2</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="15">
+      <c r="J11" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="15">
+      <c r="G12" s="15">
         <v>4</v>
       </c>
-      <c r="F12" s="15">
+      <c r="H12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="15">
+      <c r="J12" s="15">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="15">
+      <c r="G13" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="15">
+      <c r="H13" s="15">
         <v>2</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="15">
+      <c r="J13" s="15">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="15">
+      <c r="G14" s="15">
         <v>2</v>
       </c>
-      <c r="F14" s="15">
+      <c r="H14" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="15">
+      <c r="J14" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="15">
+      <c r="G15" s="15">
         <v>2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="H15" s="15">
         <v>3</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="I15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="15">
+      <c r="J15" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="15">
+      <c r="G16" s="15">
         <v>2</v>
-      </c>
-      <c r="F16" s="15">
-        <v>4</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="H16" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="I16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="15">
+        <v>4</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15">
+      <c r="G17" s="15">
         <v>4</v>
       </c>
-      <c r="F17" s="15">
+      <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="15">
+      <c r="J17" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="F18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="15">
+      <c r="G18" s="15">
         <v>1</v>
       </c>
-      <c r="F18" s="15">
+      <c r="H18" s="15">
         <v>3</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="15">
+      <c r="J18" s="15">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="F19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="15">
+      <c r="G19" s="15">
         <v>1</v>
-      </c>
-      <c r="F19" s="15">
-        <v>4</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="H19" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="I19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="15">
+        <v>4</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="F20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="15">
+      <c r="G20" s="15">
         <v>1</v>
       </c>
-      <c r="F20" s="15">
+      <c r="H20" s="15">
         <v>4</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="15">
+      <c r="J20" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="15">
+      <c r="G21" s="15">
         <v>2</v>
       </c>
-      <c r="F21" s="15">
+      <c r="H21" s="15">
         <v>4</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="15">
+      <c r="J21" s="15">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="15">
+      <c r="G22" s="15">
         <v>4</v>
       </c>
-      <c r="F22" s="15">
+      <c r="H22" s="15">
         <v>2</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="15">
+      <c r="J22" s="15">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="F23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="15">
+      <c r="G23" s="15">
         <v>4</v>
       </c>
-      <c r="F23" s="15">
+      <c r="H23" s="15">
         <v>2</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="15">
+      <c r="J23" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="F24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="15">
+      <c r="G24" s="15">
         <v>5</v>
       </c>
-      <c r="F24" s="15">
+      <c r="H24" s="15">
         <v>3</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="15">
+      <c r="J24" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="3:11" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="15">
+      <c r="G25" s="15">
         <v>5</v>
       </c>
-      <c r="F25" s="15">
+      <c r="H25" s="15">
         <v>4</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="15">
+      <c r="J25" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="15">
+      <c r="G26" s="15">
         <v>5</v>
       </c>
-      <c r="F26" s="15">
+      <c r="H26" s="15">
         <v>3</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="I26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="15">
+      <c r="J26" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="10"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1714,13 +1853,13 @@
           <x14:formula1>
             <xm:f>'DROPDOWN MENUS'!$D$3:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>F8:F19</xm:sqref>
+          <xm:sqref>H8:H19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2BE1519-9FFA-4B94-A1F1-1196FF8F9495}">
           <x14:formula1>
             <xm:f>'DROPDOWN MENUS'!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>E8:E19</xm:sqref>
+          <xm:sqref>G8:G19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
